--- a/test_cricket.xlsx
+++ b/test_cricket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-set\test_cricket_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44185630-EB12-49F6-85A6-7670DE0A25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB5D0E6-D1D6-44E1-871F-A2EF34A5EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{03ACF06B-1568-43D4-9A5D-7EEFF68117B1}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{03ACF06B-1568-43D4-9A5D-7EEFF68117B1}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="403">
   <si>
     <t>Player</t>
   </si>
@@ -823,9 +823,6 @@
     <t>13/132</t>
   </si>
   <si>
-    <t>13/106</t>
-  </si>
-  <si>
     <t>MD Marshall (WI)</t>
   </si>
   <si>
@@ -1183,9 +1180,6 @@
     <t>JR Hazlewood (AUS)</t>
   </si>
   <si>
-    <t>9/115</t>
-  </si>
-  <si>
     <t>MG Hughes (AUS)</t>
   </si>
   <si>
@@ -1241,9 +1235,6 @@
   </si>
   <si>
     <t>1972-1985</t>
-  </si>
-  <si>
-    <t>9/105</t>
   </si>
 </sst>
 </file>
@@ -5054,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06248AAE-F737-4111-9E49-597F1BF30120}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5232,6 +5223,9 @@
       <c r="M4">
         <v>35</v>
       </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5493,6 +5487,9 @@
       <c r="M10">
         <v>23</v>
       </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5912,12 +5909,7 @@
       <c r="G20">
         <v>383</v>
       </c>
-      <c r="H20" s="3">
-        <v>12632</v>
-      </c>
-      <c r="I20" t="s">
-        <v>265</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="J20">
         <v>28.4</v>
       </c>
@@ -5936,10 +5928,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" t="s">
         <v>266</v>
-      </c>
-      <c r="B21" t="s">
-        <v>267</v>
       </c>
       <c r="C21">
         <v>81</v>
@@ -5980,10 +5972,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" t="s">
         <v>268</v>
-      </c>
-      <c r="B22" t="s">
-        <v>269</v>
       </c>
       <c r="C22">
         <v>87</v>
@@ -6004,7 +5996,7 @@
         <v>27942</v>
       </c>
       <c r="I22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J22">
         <v>23.56</v>
@@ -6024,10 +6016,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
         <v>271</v>
-      </c>
-      <c r="B23" t="s">
-        <v>272</v>
       </c>
       <c r="C23">
         <v>88</v>
@@ -6048,7 +6040,7 @@
         <v>21398</v>
       </c>
       <c r="I23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J23">
         <v>22.81</v>
@@ -6068,7 +6060,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -6088,11 +6080,9 @@
       <c r="G24">
         <v>362</v>
       </c>
-      <c r="H24" s="3">
-        <v>31959</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J24">
         <v>34.36</v>
@@ -6112,10 +6102,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" t="s">
         <v>276</v>
-      </c>
-      <c r="B25" t="s">
-        <v>277</v>
       </c>
       <c r="C25">
         <v>70</v>
@@ -6136,7 +6126,7 @@
         <v>30498</v>
       </c>
       <c r="I25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J25">
         <v>23.92</v>
@@ -6156,7 +6146,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
@@ -6180,7 +6170,7 @@
         <v>26115</v>
       </c>
       <c r="I26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J26">
         <v>29.58</v>
@@ -6200,10 +6190,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" t="s">
         <v>281</v>
-      </c>
-      <c r="B27" t="s">
-        <v>282</v>
       </c>
       <c r="C27">
         <v>72</v>
@@ -6224,7 +6214,7 @@
         <v>26146</v>
       </c>
       <c r="I27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J27">
         <v>22.25</v>
@@ -6244,10 +6234,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28">
         <v>90</v>
@@ -6288,10 +6278,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" t="s">
         <v>285</v>
-      </c>
-      <c r="B29" t="s">
-        <v>286</v>
       </c>
       <c r="C29">
         <v>79</v>
@@ -6312,7 +6302,7 @@
         <v>23559</v>
       </c>
       <c r="I29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J29">
         <v>28.22</v>
@@ -6332,10 +6322,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" t="s">
         <v>288</v>
-      </c>
-      <c r="B30" t="s">
-        <v>289</v>
       </c>
       <c r="C30">
         <v>73</v>
@@ -6356,7 +6346,7 @@
         <v>22494</v>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J30">
         <v>28.4</v>
@@ -6376,7 +6366,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
@@ -6400,7 +6390,7 @@
         <v>31959</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J31">
         <v>32.94</v>
@@ -6420,7 +6410,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
         <v>176</v>
@@ -6444,7 +6434,7 @@
         <v>44346</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J32">
         <v>30.81</v>
@@ -6464,7 +6454,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -6488,7 +6478,7 @@
         <v>44370</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J33">
         <v>27.66</v>
@@ -6508,10 +6498,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
         <v>297</v>
-      </c>
-      <c r="B34" t="s">
-        <v>298</v>
       </c>
       <c r="C34">
         <v>79</v>
@@ -6532,7 +6522,7 @@
         <v>14093</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J34">
         <v>29.09</v>
@@ -6552,10 +6542,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" t="s">
         <v>300</v>
-      </c>
-      <c r="B35" t="s">
-        <v>301</v>
       </c>
       <c r="C35">
         <v>67</v>
@@ -6576,7 +6566,7 @@
         <v>44439</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J35">
         <v>21.57</v>
@@ -6596,7 +6586,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
@@ -6620,7 +6610,7 @@
         <v>27211</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J36">
         <v>32.18</v>
@@ -6640,10 +6630,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" t="s">
         <v>304</v>
-      </c>
-      <c r="B37" t="s">
-        <v>305</v>
       </c>
       <c r="C37">
         <v>86</v>
@@ -6664,7 +6654,7 @@
         <v>18841</v>
       </c>
       <c r="I37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J37">
         <v>25.83</v>
@@ -6684,7 +6674,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -6772,7 +6762,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s">
         <v>106</v>
@@ -6796,7 +6786,7 @@
         <v>35643</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J40">
         <v>28.63</v>
@@ -6816,10 +6806,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" t="s">
         <v>309</v>
-      </c>
-      <c r="B41" t="s">
-        <v>310</v>
       </c>
       <c r="C41">
         <v>67</v>
@@ -6840,7 +6830,7 @@
         <v>35977</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J41">
         <v>28.71</v>
@@ -6860,10 +6850,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" t="s">
         <v>312</v>
-      </c>
-      <c r="B42" t="s">
-        <v>313</v>
       </c>
       <c r="C42">
         <v>61</v>
@@ -6904,10 +6894,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" t="s">
         <v>314</v>
-      </c>
-      <c r="B43" t="s">
-        <v>315</v>
       </c>
       <c r="C43">
         <v>58</v>
@@ -6928,7 +6918,7 @@
         <v>20607</v>
       </c>
       <c r="I43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J43">
         <v>20.97</v>
@@ -6948,10 +6938,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>316</v>
+      </c>
+      <c r="B44" t="s">
         <v>317</v>
-      </c>
-      <c r="B44" t="s">
-        <v>318</v>
       </c>
       <c r="C44">
         <v>71</v>
@@ -6992,7 +6982,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s">
         <v>92</v>
@@ -7036,10 +7026,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" t="s">
         <v>320</v>
-      </c>
-      <c r="B46" t="s">
-        <v>321</v>
       </c>
       <c r="C46">
         <v>60</v>
@@ -7060,7 +7050,7 @@
         <v>23894</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J46">
         <v>29.96</v>
@@ -7080,10 +7070,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" t="s">
         <v>323</v>
-      </c>
-      <c r="B47" t="s">
-        <v>324</v>
       </c>
       <c r="C47">
         <v>70</v>
@@ -7124,10 +7114,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" t="s">
         <v>325</v>
-      </c>
-      <c r="B48" t="s">
-        <v>326</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -7168,10 +7158,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" t="s">
         <v>327</v>
-      </c>
-      <c r="B49" t="s">
-        <v>328</v>
       </c>
       <c r="C49">
         <v>63</v>
@@ -7192,7 +7182,7 @@
         <v>26481</v>
       </c>
       <c r="I49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J49">
         <v>27.03</v>
@@ -7212,10 +7202,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" t="s">
         <v>330</v>
-      </c>
-      <c r="B50" t="s">
-        <v>331</v>
       </c>
       <c r="C50">
         <v>67</v>
@@ -7236,7 +7226,7 @@
         <v>22463</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J50">
         <v>30.5</v>
@@ -7256,7 +7246,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
         <v>200</v>
@@ -7300,10 +7290,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B52" t="s">
         <v>334</v>
-      </c>
-      <c r="B52" t="s">
-        <v>335</v>
       </c>
       <c r="C52">
         <v>58</v>
@@ -7324,7 +7314,7 @@
         <v>29068</v>
       </c>
       <c r="I52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J52">
         <v>29.74</v>
@@ -7344,10 +7334,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B53" t="s">
         <v>337</v>
-      </c>
-      <c r="B53" t="s">
-        <v>338</v>
       </c>
       <c r="C53">
         <v>51</v>
@@ -7368,7 +7358,7 @@
         <v>16254</v>
       </c>
       <c r="I53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J53">
         <v>24.89</v>
@@ -7388,7 +7378,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -7432,10 +7422,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" t="s">
         <v>341</v>
-      </c>
-      <c r="B55" t="s">
-        <v>342</v>
       </c>
       <c r="C55">
         <v>67</v>
@@ -7456,7 +7446,7 @@
         <v>20699</v>
       </c>
       <c r="I55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J55">
         <v>32.799999999999997</v>
@@ -7476,10 +7466,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" t="s">
         <v>344</v>
-      </c>
-      <c r="B56" t="s">
-        <v>345</v>
       </c>
       <c r="C56">
         <v>45</v>
@@ -7564,10 +7554,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>345</v>
+      </c>
+      <c r="B58" t="s">
         <v>346</v>
-      </c>
-      <c r="B58" t="s">
-        <v>347</v>
       </c>
       <c r="C58">
         <v>62</v>
@@ -7588,7 +7578,7 @@
         <v>16984</v>
       </c>
       <c r="I58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J58">
         <v>29.91</v>
@@ -7608,10 +7598,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" t="s">
         <v>349</v>
-      </c>
-      <c r="B59" t="s">
-        <v>350</v>
       </c>
       <c r="C59">
         <v>71</v>
@@ -7632,7 +7622,7 @@
         <v>44373</v>
       </c>
       <c r="I59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J59">
         <v>33.81</v>
@@ -7652,7 +7642,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
@@ -7696,10 +7686,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" t="s">
         <v>353</v>
-      </c>
-      <c r="B61" t="s">
-        <v>354</v>
       </c>
       <c r="C61">
         <v>58</v>
@@ -7740,10 +7730,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" t="s">
         <v>355</v>
-      </c>
-      <c r="B62" t="s">
-        <v>356</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -7784,10 +7774,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>356</v>
+      </c>
+      <c r="B63" t="s">
         <v>357</v>
-      </c>
-      <c r="B63" t="s">
-        <v>358</v>
       </c>
       <c r="C63">
         <v>63</v>
@@ -7828,7 +7818,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B64" t="s">
         <v>263</v>
@@ -7852,7 +7842,7 @@
         <v>21306</v>
       </c>
       <c r="I64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J64">
         <v>32.78</v>
@@ -7872,10 +7862,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B65" t="s">
         <v>361</v>
-      </c>
-      <c r="B65" t="s">
-        <v>362</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -7896,7 +7886,7 @@
         <v>44368</v>
       </c>
       <c r="I65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J65">
         <v>22.32</v>
@@ -7916,7 +7906,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s">
         <v>149</v>
@@ -7940,7 +7930,7 @@
         <v>17685</v>
       </c>
       <c r="I66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J66">
         <v>27.32</v>
@@ -7960,7 +7950,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B67" t="s">
         <v>55</v>
@@ -7984,7 +7974,7 @@
         <v>17715</v>
       </c>
       <c r="I67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J67">
         <v>24.41</v>
@@ -8004,10 +7994,10 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>367</v>
+      </c>
+      <c r="B68" t="s">
         <v>368</v>
-      </c>
-      <c r="B68" t="s">
-        <v>369</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -8028,7 +8018,7 @@
         <v>19876</v>
       </c>
       <c r="I68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J68">
         <v>30.66</v>
@@ -8048,10 +8038,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" t="s">
         <v>371</v>
-      </c>
-      <c r="B69" t="s">
-        <v>372</v>
       </c>
       <c r="C69">
         <v>62</v>
@@ -8072,7 +8062,7 @@
         <v>44404</v>
       </c>
       <c r="I69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J69">
         <v>29.4</v>
@@ -8092,10 +8082,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" t="s">
         <v>374</v>
-      </c>
-      <c r="B70" t="s">
-        <v>375</v>
       </c>
       <c r="C70">
         <v>37</v>
@@ -8116,7 +8106,7 @@
         <v>14793</v>
       </c>
       <c r="I70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J70">
         <v>24.21</v>
@@ -8136,7 +8126,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
@@ -8180,7 +8170,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B72" t="s">
         <v>89</v>
@@ -8204,7 +8194,7 @@
         <v>13332</v>
       </c>
       <c r="I72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J72">
         <v>31.06</v>
@@ -8224,10 +8214,10 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>379</v>
+      </c>
+      <c r="B73" t="s">
         <v>380</v>
-      </c>
-      <c r="B73" t="s">
-        <v>381</v>
       </c>
       <c r="C73">
         <v>47</v>
@@ -8245,10 +8235,10 @@
         <v>213</v>
       </c>
       <c r="H73" t="s">
+        <v>381</v>
+      </c>
+      <c r="I73" t="s">
         <v>382</v>
-      </c>
-      <c r="I73" t="s">
-        <v>383</v>
       </c>
       <c r="J73">
         <v>22.75</v>
@@ -8268,10 +8258,10 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C74">
         <v>55</v>
@@ -8291,9 +8281,6 @@
       <c r="H74" s="3">
         <v>24624</v>
       </c>
-      <c r="I74" t="s">
-        <v>385</v>
-      </c>
       <c r="J74">
         <v>25.65</v>
       </c>
@@ -8312,10 +8299,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B75" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C75">
         <v>53</v>
@@ -8336,7 +8323,7 @@
         <v>31990</v>
       </c>
       <c r="I75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J75">
         <v>28.38</v>
@@ -8356,10 +8343,10 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B76" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C76">
         <v>44</v>
@@ -8377,10 +8364,10 @@
         <v>208</v>
       </c>
       <c r="H76" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I76" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J76">
         <v>29.02</v>
@@ -8400,10 +8387,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B77" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C77">
         <v>49</v>
@@ -8421,10 +8408,10 @@
         <v>208</v>
       </c>
       <c r="H77" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I77" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J77">
         <v>29.83</v>
@@ -8444,10 +8431,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C78">
         <v>47</v>
@@ -8468,7 +8455,7 @@
         <v>19906</v>
       </c>
       <c r="I78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J78">
         <v>25.61</v>
@@ -8488,10 +8475,10 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B79" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C79">
         <v>49</v>
@@ -8512,7 +8499,7 @@
         <v>14793</v>
       </c>
       <c r="I79" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J79">
         <v>26.66</v>
@@ -8532,10 +8519,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C80">
         <v>51</v>
@@ -8554,9 +8541,6 @@
       </c>
       <c r="H80" s="3">
         <v>16954</v>
-      </c>
-      <c r="I80" t="s">
-        <v>405</v>
       </c>
       <c r="J80">
         <v>28</v>
